--- a/input/tables_extraction/UNCCD/UNCCD.xlsx
+++ b/input/tables_extraction/UNCCD/UNCCD.xlsx
@@ -32,25 +32,25 @@
     <t>indicators</t>
   </si>
   <si>
-    <t>UNCCD_1</t>
+    <t>UNCCD_1_1</t>
   </si>
   <si>
     <t>Proportion of land that is degraded over total land area</t>
   </si>
   <si>
-    <t>UNCCD_1.1</t>
+    <t>UNCCD_1_1_2</t>
   </si>
   <si>
     <t xml:space="preserve">Trends in land cover </t>
   </si>
   <si>
-    <t>UNCCD_1.2</t>
+    <t>UNCCD_1_2_3</t>
   </si>
   <si>
     <t>Trends in land productivity</t>
   </si>
   <si>
-    <t>UNCCD_1.3</t>
+    <t>UNCCD_1_3_4</t>
   </si>
   <si>
     <t>Trends in carbon stocks (above and below ground), which is currently represented by soil organic carbon (SOC) stocks</t>
@@ -333,12 +333,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="66.0" customHeight="1">
+    <row r="3" ht="158.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="51.0" customHeight="1">
+    <row r="4" ht="105.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
